--- a/BackTest/2019-10-16 BackTest CHR.xlsx
+++ b/BackTest/2019-10-16 BackTest CHR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>6.599999999999998</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-14.2857142857143</v>
+      </c>
       <c r="L12" t="n">
         <v>31.99999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>7.899999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-8.474576271186443</v>
+      </c>
       <c r="L13" t="n">
         <v>32.05</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>8</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>12.50000000000004</v>
+      </c>
       <c r="L14" t="n">
         <v>31.98999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>8</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-10.52631578947365</v>
+      </c>
       <c r="L15" t="n">
         <v>32.05</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>8</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>32.01</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-11.76470588235302</v>
+      </c>
       <c r="L17" t="n">
         <v>31.99</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>8.399999999999999</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-5.555555555555643</v>
+      </c>
       <c r="L18" t="n">
         <v>31.97</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>8.399999999999999</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-11.7647058823529</v>
+      </c>
       <c r="L19" t="n">
         <v>31.95</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>8.399999999999999</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-11.7647058823529</v>
+      </c>
       <c r="L20" t="n">
         <v>31.91</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>8.399999999999999</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>66.6666666666666</v>
+      </c>
       <c r="L21" t="n">
         <v>31.87</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>8.5</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-33.33333333333373</v>
+      </c>
       <c r="L22" t="n">
         <v>31.98</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>8.599999999999998</v>
       </c>
       <c r="K23" t="n">
-        <v>2.631578947368412</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>31.95</v>
@@ -1466,7 +1488,7 @@
         <v>8.599999999999998</v>
       </c>
       <c r="K24" t="n">
-        <v>-12.12121212121214</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>31.93</v>
@@ -1515,7 +1537,7 @@
         <v>8.599999999999998</v>
       </c>
       <c r="K25" t="n">
-        <v>7.407407407407455</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>31.91</v>
@@ -1564,7 +1586,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>-26.92307692307692</v>
+        <v>-66.66666666666676</v>
       </c>
       <c r="L26" t="n">
         <v>31.81</v>
@@ -1613,7 +1635,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>-20.83333333333335</v>
+        <v>-100</v>
       </c>
       <c r="L27" t="n">
         <v>31.73</v>
@@ -1662,7 +1684,7 @@
         <v>9.5</v>
       </c>
       <c r="K28" t="n">
-        <v>-27.65957446808522</v>
+        <v>-100</v>
       </c>
       <c r="L28" t="n">
         <v>31.62</v>
@@ -1711,7 +1733,7 @@
         <v>10.9</v>
       </c>
       <c r="K29" t="n">
-        <v>1.639344262294991</v>
+        <v>11.99999999999989</v>
       </c>
       <c r="L29" t="n">
         <v>31.65</v>
@@ -1760,7 +1782,7 @@
         <v>11.8</v>
       </c>
       <c r="K30" t="n">
-        <v>-14.70588235294118</v>
+        <v>-17.64705882352946</v>
       </c>
       <c r="L30" t="n">
         <v>31.59</v>
@@ -1809,7 +1831,7 @@
         <v>12.6</v>
       </c>
       <c r="K31" t="n">
-        <v>-2.631578947368364</v>
+        <v>7.317073170731808</v>
       </c>
       <c r="L31" t="n">
         <v>31.61</v>
@@ -1860,7 +1882,7 @@
         <v>12.6</v>
       </c>
       <c r="K32" t="n">
-        <v>23.33333333333336</v>
+        <v>10.00000000000004</v>
       </c>
       <c r="L32" t="n">
         <v>31.64</v>
@@ -1911,7 +1933,7 @@
         <v>12.6</v>
       </c>
       <c r="K33" t="n">
-        <v>2.127659574468114</v>
+        <v>10.00000000000004</v>
       </c>
       <c r="L33" t="n">
         <v>31.68</v>
@@ -1962,7 +1984,7 @@
         <v>12.9</v>
       </c>
       <c r="K34" t="n">
-        <v>10.20408163265306</v>
+        <v>16.27906976744184</v>
       </c>
       <c r="L34" t="n">
         <v>31.74999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>13</v>
       </c>
       <c r="K35" t="n">
-        <v>7.999999999999971</v>
+        <v>38.88888888888884</v>
       </c>
       <c r="L35" t="n">
         <v>31.80999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>13.1</v>
       </c>
       <c r="K36" t="n">
-        <v>5.882352941176413</v>
+        <v>35.13513513513503</v>
       </c>
       <c r="L36" t="n">
         <v>31.93999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>13.2</v>
       </c>
       <c r="K37" t="n">
-        <v>8.000000000000048</v>
+        <v>35.13513513513529</v>
       </c>
       <c r="L37" t="n">
         <v>32.05999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>13.2</v>
       </c>
       <c r="K38" t="n">
-        <v>4.166666666666728</v>
+        <v>-4.34782608695628</v>
       </c>
       <c r="L38" t="n">
         <v>32.18999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>14.5</v>
       </c>
       <c r="K39" t="n">
-        <v>-18.03278688524592</v>
+        <v>-18.5185185185185</v>
       </c>
       <c r="L39" t="n">
         <v>32.04999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>14.5</v>
       </c>
       <c r="K40" t="n">
-        <v>-18.03278688524592</v>
+        <v>-68.42105263157923</v>
       </c>
       <c r="L40" t="n">
         <v>31.99999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>15.3</v>
       </c>
       <c r="K41" t="n">
-        <v>-4.34782608695653</v>
+        <v>-18.51851851851866</v>
       </c>
       <c r="L41" t="n">
         <v>31.94999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>16</v>
       </c>
       <c r="K42" t="n">
-        <v>-11.99999999999998</v>
+        <v>-35.29411764705892</v>
       </c>
       <c r="L42" t="n">
         <v>31.82999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>16</v>
       </c>
       <c r="K43" t="n">
-        <v>-10.81081081081082</v>
+        <v>-48.38709677419353</v>
       </c>
       <c r="L43" t="n">
         <v>31.70999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>16.8</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-15.78947368421047</v>
       </c>
       <c r="L44" t="n">
         <v>31.63999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>17.6</v>
       </c>
       <c r="K45" t="n">
-        <v>-8.888888888888893</v>
+        <v>-28.88888888888883</v>
       </c>
       <c r="L45" t="n">
         <v>31.49999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>17.6</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L46" t="n">
         <v>31.36999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>17.6</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L47" t="n">
         <v>31.24999999999999</v>
